--- a/data/trans_orig/P78_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P78_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6C72D98-A152-4499-96D1-D747978DD444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B387708D-54DC-4112-85DD-CFFCC77A9933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8EB94062-A41A-4191-819A-35881A2C877B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2581C5D2-AC39-4471-96D1-D5C309321766}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>82,09%</t>
   </si>
   <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
   </si>
   <si>
     <t>84,92%</t>
   </si>
   <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
   </si>
   <si>
     <t>83,46%</t>
   </si>
   <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>17,91%</t>
   </si>
   <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
   </si>
   <si>
     <t>15,08%</t>
   </si>
   <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
   </si>
   <si>
     <t>16,54%</t>
   </si>
   <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>76,57%</t>
   </si>
   <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
   </si>
   <si>
     <t>78,74%</t>
   </si>
   <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
   </si>
   <si>
     <t>78,07%</t>
   </si>
   <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
   </si>
   <si>
     <t>23,43%</t>
   </si>
   <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
   </si>
   <si>
     <t>21,26%</t>
   </si>
   <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
   </si>
   <si>
     <t>21,93%</t>
   </si>
   <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,55 @@
     <t>78,82%</t>
   </si>
   <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
   </si>
   <si>
     <t>86,99%</t>
   </si>
   <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
   </si>
   <si>
     <t>85,47%</t>
   </si>
   <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
   </si>
   <si>
     <t>21,18%</t>
   </si>
   <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
   </si>
   <si>
     <t>13,01%</t>
   </si>
   <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
   </si>
   <si>
     <t>14,53%</t>
   </si>
   <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,55 +251,55 @@
     <t>52,66%</t>
   </si>
   <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
   </si>
   <si>
     <t>83,43%</t>
   </si>
   <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
   </si>
   <si>
     <t>78,62%</t>
   </si>
   <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
   </si>
   <si>
     <t>47,34%</t>
   </si>
   <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
   </si>
   <si>
     <t>16,57%</t>
   </si>
   <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
   </si>
   <si>
     <t>21,38%</t>
   </si>
   <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,55 +308,55 @@
     <t>59,97%</t>
   </si>
   <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
   </si>
   <si>
     <t>51,76%</t>
   </si>
   <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
   </si>
   <si>
     <t>52,4%</t>
   </si>
   <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
   </si>
   <si>
     <t>40,03%</t>
   </si>
   <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
   </si>
   <si>
     <t>48,24%</t>
   </si>
   <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
   </si>
   <si>
     <t>47,6%</t>
   </si>
   <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -365,109 +365,109 @@
     <t>45,72%</t>
   </si>
   <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
   </si>
   <si>
     <t>7,16%</t>
   </si>
   <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
   </si>
   <si>
     <t>8,36%</t>
   </si>
   <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
   </si>
   <si>
     <t>54,28%</t>
   </si>
   <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
   </si>
   <si>
     <t>92,84%</t>
   </si>
   <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
   </si>
   <si>
     <t>91,64%</t>
   </si>
   <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
   </si>
   <si>
     <t>76,14%</t>
   </si>
   <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
   </si>
   <si>
     <t>54,03%</t>
   </si>
   <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
   </si>
   <si>
     <t>59,14%</t>
   </si>
   <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
   </si>
   <si>
     <t>23,86%</t>
   </si>
   <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
   </si>
   <si>
     <t>45,97%</t>
   </si>
   <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
   </si>
   <si>
     <t>40,86%</t>
   </si>
   <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -882,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67515812-ACE5-4ECC-A1F7-E54D46375CC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA27118B-E7AA-4F97-B94D-38D8951151DD}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P78_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P78_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B387708D-54DC-4112-85DD-CFFCC77A9933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7C41C2B-77AA-4C3E-BC7B-7BB0C5CB8B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2581C5D2-AC39-4471-96D1-D5C309321766}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8B52F8AD-41C1-45EE-BB47-BF5AD98F96BC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -882,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA27118B-E7AA-4F97-B94D-38D8951151DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D93FB5-6A3D-49BF-93F3-F56818853158}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P78_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P78_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7C41C2B-77AA-4C3E-BC7B-7BB0C5CB8B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{683ACA98-AC93-4CA2-BE3B-C3FB5223AE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8B52F8AD-41C1-45EE-BB47-BF5AD98F96BC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{877C682A-2C2C-43BA-B2D1-C990623444CD}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
   <si>
-    <t>Población según si trabajan actualmente en 2023 (Tasa respuesta: 29,19%)</t>
+    <t>Población según si la persona sustentadora principal trabaja actualmente en 2023 (Tasa respuesta: 66,62%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,340 +134,340 @@
     <t>25/34</t>
   </si>
   <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
   </si>
   <si>
     <t>35/44</t>
   </si>
   <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
   </si>
   <si>
     <t>45/54</t>
   </si>
   <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
   </si>
   <si>
     <t>55/64</t>
   </si>
   <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
   </si>
   <si>
     <t>65 y más</t>
   </si>
   <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -882,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D93FB5-6A3D-49BF-93F3-F56818853158}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCFA355A-B3A0-4472-9F8A-A12D8704CEFD}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1000,10 +1000,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="D4" s="7">
-        <v>252214</v>
+        <v>294160</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1015,10 +1015,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="I4" s="7">
-        <v>244515</v>
+        <v>285717</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1030,10 +1030,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>250</v>
+        <v>303</v>
       </c>
       <c r="N4" s="7">
-        <v>496729</v>
+        <v>579876</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1102,10 +1102,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="D6" s="7">
-        <v>307237</v>
+        <v>349183</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1117,10 +1117,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="I6" s="7">
-        <v>287939</v>
+        <v>329141</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1132,10 +1132,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>293</v>
+        <v>346</v>
       </c>
       <c r="N6" s="7">
-        <v>595176</v>
+        <v>678323</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1155,10 +1155,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>45</v>
+        <v>262</v>
       </c>
       <c r="D7" s="7">
-        <v>64653</v>
+        <v>370056</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1170,10 +1170,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>140</v>
+        <v>375</v>
       </c>
       <c r="I7" s="7">
-        <v>148646</v>
+        <v>404131</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1185,10 +1185,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>185</v>
+        <v>637</v>
       </c>
       <c r="N7" s="7">
-        <v>213299</v>
+        <v>774187</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1257,10 +1257,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>57</v>
+        <v>274</v>
       </c>
       <c r="D9" s="7">
-        <v>84439</v>
+        <v>389842</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1272,10 +1272,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>171</v>
+        <v>406</v>
       </c>
       <c r="I9" s="7">
-        <v>188777</v>
+        <v>444262</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1287,10 +1287,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>228</v>
+        <v>680</v>
       </c>
       <c r="N9" s="7">
-        <v>273216</v>
+        <v>834104</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1310,10 +1310,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>28</v>
+        <v>481</v>
       </c>
       <c r="D10" s="7">
-        <v>33841</v>
+        <v>488067</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1325,10 +1325,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>238</v>
+        <v>695</v>
       </c>
       <c r="I10" s="7">
-        <v>162878</v>
+        <v>475364</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1340,10 +1340,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>266</v>
+        <v>1176</v>
       </c>
       <c r="N10" s="7">
-        <v>196719</v>
+        <v>963431</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1412,10 +1412,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>37</v>
+        <v>490</v>
       </c>
       <c r="D12" s="7">
-        <v>42932</v>
+        <v>497158</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1427,10 +1427,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>271</v>
+        <v>728</v>
       </c>
       <c r="I12" s="7">
-        <v>187230</v>
+        <v>499716</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1442,10 +1442,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>308</v>
+        <v>1218</v>
       </c>
       <c r="N12" s="7">
-        <v>230162</v>
+        <v>996874</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1465,10 +1465,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>26</v>
+        <v>540</v>
       </c>
       <c r="D13" s="7">
-        <v>24366</v>
+        <v>593962</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1480,10 +1480,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>318</v>
+        <v>915</v>
       </c>
       <c r="I13" s="7">
-        <v>208305</v>
+        <v>602543</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1495,10 +1495,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>344</v>
+        <v>1455</v>
       </c>
       <c r="N13" s="7">
-        <v>232672</v>
+        <v>1196505</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1567,10 +1567,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>46</v>
+        <v>560</v>
       </c>
       <c r="D15" s="7">
-        <v>46274</v>
+        <v>615870</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1582,10 +1582,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>382</v>
+        <v>979</v>
       </c>
       <c r="I15" s="7">
-        <v>249667</v>
+        <v>643905</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1597,10 +1597,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>428</v>
+        <v>1539</v>
       </c>
       <c r="N15" s="7">
-        <v>295941</v>
+        <v>1259774</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1620,10 +1620,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>19</v>
+        <v>371</v>
       </c>
       <c r="D16" s="7">
-        <v>12574</v>
+        <v>329822</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1635,10 +1635,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>211</v>
+        <v>544</v>
       </c>
       <c r="I16" s="7">
-        <v>128923</v>
+        <v>323793</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1650,10 +1650,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>230</v>
+        <v>915</v>
       </c>
       <c r="N16" s="7">
-        <v>141497</v>
+        <v>653614</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1722,10 +1722,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>29</v>
+        <v>381</v>
       </c>
       <c r="D18" s="7">
-        <v>20968</v>
+        <v>338216</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1737,10 +1737,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>410</v>
+        <v>743</v>
       </c>
       <c r="I18" s="7">
-        <v>249080</v>
+        <v>443950</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1752,10 +1752,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>439</v>
+        <v>1124</v>
       </c>
       <c r="N18" s="7">
-        <v>270049</v>
+        <v>782166</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1775,10 +1775,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D19" s="7">
-        <v>8307</v>
+        <v>26719</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -1790,10 +1790,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="I19" s="7">
-        <v>40483</v>
+        <v>58413</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -1805,10 +1805,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="N19" s="7">
-        <v>48790</v>
+        <v>85132</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -1877,10 +1877,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D21" s="7">
-        <v>18170</v>
+        <v>36582</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1892,10 +1892,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>827</v>
+        <v>862</v>
       </c>
       <c r="I21" s="7">
-        <v>565522</v>
+        <v>583452</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1907,10 +1907,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>856</v>
+        <v>918</v>
       </c>
       <c r="N21" s="7">
-        <v>583692</v>
+        <v>620034</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1930,10 +1930,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>240</v>
+        <v>1830</v>
       </c>
       <c r="D22" s="7">
-        <v>395954</v>
+        <v>2102784</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>126</v>
@@ -1945,10 +1945,10 @@
         <v>128</v>
       </c>
       <c r="H22" s="7">
-        <v>1120</v>
+        <v>2803</v>
       </c>
       <c r="I22" s="7">
-        <v>933752</v>
+        <v>2149961</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>129</v>
@@ -1960,10 +1960,10 @@
         <v>131</v>
       </c>
       <c r="M22" s="7">
-        <v>1360</v>
+        <v>4633</v>
       </c>
       <c r="N22" s="7">
-        <v>1329706</v>
+        <v>4252746</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>132</v>
@@ -2032,10 +2032,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>328</v>
+        <v>1918</v>
       </c>
       <c r="D24" s="7">
-        <v>520020</v>
+        <v>2226850</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2047,10 +2047,10 @@
         <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>2224</v>
+        <v>3907</v>
       </c>
       <c r="I24" s="7">
-        <v>1728216</v>
+        <v>2944425</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2062,10 +2062,10 @@
         <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>2552</v>
+        <v>5825</v>
       </c>
       <c r="N24" s="7">
-        <v>2248236</v>
+        <v>5171276</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P78_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P78_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{683ACA98-AC93-4CA2-BE3B-C3FB5223AE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC9E73A0-E3F3-4B6E-9CA8-C0352FA9C720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{877C682A-2C2C-43BA-B2D1-C990623444CD}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3B490F8E-8938-4651-AB29-87AD7E5A36EC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="164">
   <si>
     <t>Población según si la persona sustentadora principal trabaja actualmente en 2023 (Tasa respuesta: 66,62%)</t>
   </si>
@@ -65,409 +65,466 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>84,24%</t>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
   </si>
   <si>
     <t>77,36%</t>
   </si>
   <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
   </si>
   <si>
     <t>22,64%</t>
   </si>
   <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -882,8 +939,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCFA355A-B3A0-4472-9F8A-A12D8704CEFD}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A664AC-AF2D-46B2-929B-153AC9187C3C}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1003,7 +1060,7 @@
         <v>136</v>
       </c>
       <c r="D4" s="7">
-        <v>294160</v>
+        <v>307985</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1018,7 +1075,7 @@
         <v>167</v>
       </c>
       <c r="I4" s="7">
-        <v>285717</v>
+        <v>248523</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1033,7 +1090,7 @@
         <v>303</v>
       </c>
       <c r="N4" s="7">
-        <v>579876</v>
+        <v>556508</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1054,7 +1111,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="7">
-        <v>55023</v>
+        <v>61095</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1069,7 +1126,7 @@
         <v>22</v>
       </c>
       <c r="I5" s="7">
-        <v>43424</v>
+        <v>41187</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1084,7 +1141,7 @@
         <v>43</v>
       </c>
       <c r="N5" s="7">
-        <v>98447</v>
+        <v>102282</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1105,7 +1162,7 @@
         <v>157</v>
       </c>
       <c r="D6" s="7">
-        <v>349183</v>
+        <v>369080</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1120,7 +1177,7 @@
         <v>189</v>
       </c>
       <c r="I6" s="7">
-        <v>329141</v>
+        <v>289710</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1135,7 +1192,7 @@
         <v>346</v>
       </c>
       <c r="N6" s="7">
-        <v>678323</v>
+        <v>658790</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1158,7 +1215,7 @@
         <v>262</v>
       </c>
       <c r="D7" s="7">
-        <v>370056</v>
+        <v>365772</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1173,7 +1230,7 @@
         <v>375</v>
       </c>
       <c r="I7" s="7">
-        <v>404131</v>
+        <v>424491</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1188,7 +1245,7 @@
         <v>637</v>
       </c>
       <c r="N7" s="7">
-        <v>774187</v>
+        <v>790263</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1209,7 +1266,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="7">
-        <v>19786</v>
+        <v>19168</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1224,7 +1281,7 @@
         <v>31</v>
       </c>
       <c r="I8" s="7">
-        <v>40131</v>
+        <v>37274</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1239,7 +1296,7 @@
         <v>43</v>
       </c>
       <c r="N8" s="7">
-        <v>59917</v>
+        <v>56442</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1260,7 +1317,7 @@
         <v>274</v>
       </c>
       <c r="D9" s="7">
-        <v>389842</v>
+        <v>384940</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1275,7 +1332,7 @@
         <v>406</v>
       </c>
       <c r="I9" s="7">
-        <v>444262</v>
+        <v>461765</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1290,7 +1347,7 @@
         <v>680</v>
       </c>
       <c r="N9" s="7">
-        <v>834104</v>
+        <v>846705</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1313,7 +1370,7 @@
         <v>481</v>
       </c>
       <c r="D10" s="7">
-        <v>488067</v>
+        <v>470296</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1328,7 +1385,7 @@
         <v>695</v>
       </c>
       <c r="I10" s="7">
-        <v>475364</v>
+        <v>442338</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1343,7 +1400,7 @@
         <v>1176</v>
       </c>
       <c r="N10" s="7">
-        <v>963431</v>
+        <v>912634</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1364,7 +1421,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="7">
-        <v>9091</v>
+        <v>9021</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1379,7 +1436,7 @@
         <v>33</v>
       </c>
       <c r="I11" s="7">
-        <v>24352</v>
+        <v>22802</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1394,7 +1451,7 @@
         <v>42</v>
       </c>
       <c r="N11" s="7">
-        <v>33443</v>
+        <v>31823</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1415,7 +1472,7 @@
         <v>490</v>
       </c>
       <c r="D12" s="7">
-        <v>497158</v>
+        <v>479317</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1430,7 +1487,7 @@
         <v>728</v>
       </c>
       <c r="I12" s="7">
-        <v>499716</v>
+        <v>465140</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1445,7 +1502,7 @@
         <v>1218</v>
       </c>
       <c r="N12" s="7">
-        <v>996874</v>
+        <v>944457</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1468,7 +1525,7 @@
         <v>540</v>
       </c>
       <c r="D13" s="7">
-        <v>593962</v>
+        <v>763896</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1483,7 +1540,7 @@
         <v>915</v>
       </c>
       <c r="I13" s="7">
-        <v>602543</v>
+        <v>578537</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1498,7 +1555,7 @@
         <v>1455</v>
       </c>
       <c r="N13" s="7">
-        <v>1196505</v>
+        <v>1342434</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1519,7 +1576,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="7">
-        <v>21908</v>
+        <v>21344</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1534,7 +1591,7 @@
         <v>64</v>
       </c>
       <c r="I14" s="7">
-        <v>41362</v>
+        <v>38266</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1549,7 +1606,7 @@
         <v>84</v>
       </c>
       <c r="N14" s="7">
-        <v>63269</v>
+        <v>59610</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1570,7 +1627,7 @@
         <v>560</v>
       </c>
       <c r="D15" s="7">
-        <v>615870</v>
+        <v>785240</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1585,7 +1642,7 @@
         <v>979</v>
       </c>
       <c r="I15" s="7">
-        <v>643905</v>
+        <v>616803</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1600,7 +1657,7 @@
         <v>1539</v>
       </c>
       <c r="N15" s="7">
-        <v>1259774</v>
+        <v>1402044</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1623,7 +1680,7 @@
         <v>371</v>
       </c>
       <c r="D16" s="7">
-        <v>329822</v>
+        <v>308805</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1638,7 +1695,7 @@
         <v>544</v>
       </c>
       <c r="I16" s="7">
-        <v>323793</v>
+        <v>296819</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1653,7 +1710,7 @@
         <v>915</v>
       </c>
       <c r="N16" s="7">
-        <v>653614</v>
+        <v>605625</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1674,7 +1731,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="7">
-        <v>8394</v>
+        <v>8106</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -1689,7 +1746,7 @@
         <v>199</v>
       </c>
       <c r="I17" s="7">
-        <v>120157</v>
+        <v>110055</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -1704,7 +1761,7 @@
         <v>209</v>
       </c>
       <c r="N17" s="7">
-        <v>128552</v>
+        <v>118161</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -1725,7 +1782,7 @@
         <v>381</v>
       </c>
       <c r="D18" s="7">
-        <v>338216</v>
+        <v>316911</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1740,7 +1797,7 @@
         <v>743</v>
       </c>
       <c r="I18" s="7">
-        <v>443950</v>
+        <v>406874</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1755,7 +1812,7 @@
         <v>1124</v>
       </c>
       <c r="N18" s="7">
-        <v>782166</v>
+        <v>723786</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1775,10 +1832,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D19" s="7">
-        <v>26719</v>
+        <v>22636</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -1790,10 +1847,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="I19" s="7">
-        <v>58413</v>
+        <v>30293</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -1805,10 +1862,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="N19" s="7">
-        <v>85132</v>
+        <v>52929</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -1826,10 +1883,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D20" s="7">
-        <v>9863</v>
+        <v>6430</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -1841,10 +1898,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>755</v>
+        <v>339</v>
       </c>
       <c r="I20" s="7">
-        <v>525039</v>
+        <v>372189</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -1856,10 +1913,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>771</v>
+        <v>350</v>
       </c>
       <c r="N20" s="7">
-        <v>534902</v>
+        <v>378619</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -1877,10 +1934,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D21" s="7">
-        <v>36582</v>
+        <v>29066</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1892,10 +1949,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>862</v>
+        <v>403</v>
       </c>
       <c r="I21" s="7">
-        <v>583452</v>
+        <v>402482</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1907,10 +1964,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>918</v>
+        <v>450</v>
       </c>
       <c r="N21" s="7">
-        <v>620034</v>
+        <v>431548</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1924,55 +1981,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1830</v>
+        <v>4</v>
       </c>
       <c r="D22" s="7">
-        <v>2102784</v>
+        <v>2467</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>2803</v>
+        <v>43</v>
       </c>
       <c r="I22" s="7">
-        <v>2149961</v>
+        <v>22432</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>4633</v>
+        <v>47</v>
       </c>
       <c r="N22" s="7">
-        <v>4252746</v>
+        <v>24899</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,49 +2038,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="D23" s="7">
-        <v>124066</v>
+        <v>2868</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>1104</v>
+        <v>416</v>
       </c>
       <c r="I23" s="7">
-        <v>794464</v>
+        <v>206542</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>1192</v>
+        <v>421</v>
       </c>
       <c r="N23" s="7">
-        <v>918530</v>
+        <v>209410</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,63 +2089,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>9</v>
+      </c>
+      <c r="D24" s="7">
+        <v>5335</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>459</v>
+      </c>
+      <c r="I24" s="7">
+        <v>228974</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>468</v>
+      </c>
+      <c r="N24" s="7">
+        <v>234309</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1830</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2241856</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2803</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2043434</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="7">
+        <v>4633</v>
+      </c>
+      <c r="N25" s="7">
+        <v>4285290</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>88</v>
+      </c>
+      <c r="D26" s="7">
+        <v>128033</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1104</v>
+      </c>
+      <c r="I26" s="7">
+        <v>828314</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1192</v>
+      </c>
+      <c r="N26" s="7">
+        <v>956347</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1918</v>
       </c>
-      <c r="D24" s="7">
-        <v>2226850</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>2369889</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3907</v>
       </c>
-      <c r="I24" s="7">
-        <v>2944425</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>2871748</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>5825</v>
       </c>
-      <c r="N24" s="7">
-        <v>5171276</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>5241637</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
